--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>vermelho</t>
   </si>
@@ -40,16 +40,98 @@
   </si>
   <si>
     <t>tiro</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>redshoot</t>
+  </si>
+  <si>
+    <t>reddamage</t>
+  </si>
+  <si>
+    <t>redspeed</t>
+  </si>
+  <si>
+    <t>redhp</t>
+  </si>
+  <si>
+    <t>redinvencible</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>powerup</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>invencible</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>kill_all</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>reditem</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>life</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,13 +154,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -419,7 +505,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -433,49 +519,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -484,8 +570,150 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
